--- a/GRAMMAR-TSP.xlsx
+++ b/GRAMMAR-TSP.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\COMPILADORES\lexAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11388" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="TSP" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>program</t>
   </si>
@@ -305,6 +305,57 @@
   </si>
   <si>
     <t>multdiv_op EXP_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multdiv_op EXP_N  AT_VN2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">addsub_op EXP_N  AT_VN2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logic_val EXP_L2</t>
+  </si>
+  <si>
+    <t>id EXP_L2</t>
+  </si>
+  <si>
+    <t>num_float EXP_N2 rel_op EXP_N</t>
+  </si>
+  <si>
+    <t>num_int EXP_N2 rel_op EXP_N</t>
+  </si>
+  <si>
+    <t>num_float EXP_N2</t>
+  </si>
+  <si>
+    <t>num_int EXP_N2</t>
+  </si>
+  <si>
+    <t>l_par EXP_N r_par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">declare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while </t>
+  </si>
+  <si>
+    <t xml:space="preserve">term </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> end_prog </t>
   </si>
 </sst>
 </file>
@@ -920,10 +971,10 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,19 +983,24 @@
     <col min="2" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="36.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="15.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="34.33203125" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -1031,7 +1087,7 @@
       </c>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -1190,8 +1246,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="U6" s="4" t="s">
         <v>71</v>
       </c>
@@ -1199,9 +1256,13 @@
       <c r="W6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="X6" s="15"/>
+      <c r="X6" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -1318,11 +1379,17 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1336,12 +1403,20 @@
         <v>85</v>
       </c>
       <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="U10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="W10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1436,15 +1511,17 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="O13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1470,16 +1547,18 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1507,10 +1586,14 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
@@ -1526,7 +1609,9 @@
         <v>53</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1537,15 +1622,17 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="O16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1561,7 +1648,9 @@
         <v>55</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1572,13 +1661,15 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1594,13 +1685,23 @@
         <v>56</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
@@ -1610,17 +1711,27 @@
         <v>93</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="U18" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="Y18" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
     </row>
@@ -1733,14 +1844,22 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1765,7 +1884,9 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1795,19 +1916,29 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -1880,7 +2011,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GRAMMAR-TSP.xlsx
+++ b/GRAMMAR-TSP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
   <si>
     <t>program</t>
   </si>
@@ -280,9 +280,6 @@
     <t>else BLOCO</t>
   </si>
   <si>
-    <t xml:space="preserve">id attrib_op ATRIB2 term </t>
-  </si>
-  <si>
     <t xml:space="preserve">id ATR_ID </t>
   </si>
   <si>
@@ -356,13 +353,40 @@
   </si>
   <si>
     <t xml:space="preserve"> end_prog </t>
+  </si>
+  <si>
+    <t>rel_op AT_VN2</t>
+  </si>
+  <si>
+    <t>if  AT_VN2</t>
+  </si>
+  <si>
+    <t>declare AT_VN2</t>
+  </si>
+  <si>
+    <t>begin AT_VN2</t>
+  </si>
+  <si>
+    <t>r_par AT_VN2</t>
+  </si>
+  <si>
+    <t>while AT_VN2</t>
+  </si>
+  <si>
+    <t>id AT_VN2</t>
+  </si>
+  <si>
+    <t>for AT_VN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l_par EXP_N r_par </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +436,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +470,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -567,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -628,6 +666,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,7 +1018,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +1036,7 @@
     <col min="12" max="12" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="15.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="36.21875" style="1" bestFit="1" customWidth="1"/>
@@ -1154,7 +1198,7 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4"/>
@@ -1261,7 +1305,7 @@
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="5"/>
     </row>
@@ -1380,15 +1424,15 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1404,18 +1448,18 @@
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA10" s="5"/>
     </row>
@@ -1428,9 +1472,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
         <v>78</v>
       </c>
@@ -1461,20 +1503,20 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1500,9 +1542,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1512,10 +1558,10 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1537,23 +1583,35 @@
         <v>50</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="15" t="s">
@@ -1561,11 +1619,17 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="U14" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="W14" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
     </row>
@@ -1587,7 +1651,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1623,15 +1687,15 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -1662,13 +1726,13 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -1690,25 +1754,25 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="15" t="s">
@@ -1717,20 +1781,20 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
@@ -1845,7 +1909,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1855,10 +1919,10 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1917,27 +1981,27 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1999,7 +2063,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
